--- a/empty_book.xlsx
+++ b/empty_book.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA6"/>
+  <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,6 +571,11 @@
           <t>id_data</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>new_column_name</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -646,6 +651,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -721,6 +727,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -792,6 +799,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -863,6 +871,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -964,6 +973,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -976,7 +986,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1115,6 +1125,11 @@
           <t>id_data</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>new_column_name</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1216,6 +1231,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1228,7 +1244,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA8"/>
+  <dimension ref="A1:AB8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1367,6 +1383,11 @@
           <t>id_data</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>new_column_name</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1438,6 +1459,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1509,6 +1531,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1580,6 +1603,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1651,6 +1675,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1722,6 +1747,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1793,6 +1819,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1864,6 +1891,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1876,7 +1904,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA212"/>
+  <dimension ref="A1:AB212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2015,6 +2043,11 @@
           <t>id_data</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>new_column_name</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -2082,6 +2115,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -2149,6 +2183,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -2216,6 +2251,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -2283,6 +2319,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -2350,6 +2387,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -2425,6 +2463,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -2500,6 +2539,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -2571,6 +2611,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -2642,6 +2683,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -2713,6 +2755,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -2784,6 +2827,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -2851,6 +2895,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -2918,6 +2963,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -2985,6 +3031,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -3052,6 +3099,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -3119,6 +3167,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -3186,6 +3235,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -3253,6 +3303,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -3320,6 +3371,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -3387,6 +3439,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -3458,6 +3511,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -3525,6 +3579,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -3592,6 +3647,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -3659,6 +3715,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -3726,6 +3783,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -3793,6 +3851,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -3860,6 +3919,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -3927,6 +3987,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -3994,6 +4055,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -4061,6 +4123,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -4128,6 +4191,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -4199,6 +4263,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -4270,6 +4335,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -4337,6 +4403,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -4408,6 +4475,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -4479,6 +4547,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -4546,6 +4615,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -4613,6 +4683,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -4680,6 +4751,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -4747,6 +4819,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -4814,6 +4887,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -4881,6 +4955,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -4948,6 +5023,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -5015,6 +5091,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -5082,6 +5159,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -5149,6 +5227,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -5216,6 +5295,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -5283,6 +5363,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -5350,6 +5431,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -5417,6 +5499,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -5484,6 +5567,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -5551,6 +5635,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -5618,6 +5703,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -5685,6 +5771,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -5752,6 +5839,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -5819,6 +5907,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -5886,6 +5975,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -5953,6 +6043,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -6020,6 +6111,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -6087,6 +6179,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -6154,6 +6247,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -6221,6 +6315,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -6288,6 +6383,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -6355,6 +6451,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -6422,6 +6519,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -6489,6 +6587,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -6556,6 +6655,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -6623,6 +6723,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -6690,6 +6791,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -6757,6 +6859,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -6824,6 +6927,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -6891,6 +6995,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -6958,6 +7063,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -7025,6 +7131,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -7092,6 +7199,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -7159,6 +7267,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -7226,6 +7335,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -7293,6 +7403,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -7364,6 +7475,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -7431,6 +7543,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -7498,6 +7611,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -7565,6 +7679,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -7632,6 +7747,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -7699,6 +7815,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -7766,6 +7883,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -7833,6 +7951,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -7900,6 +8019,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -7967,6 +8087,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -8034,6 +8155,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -8101,6 +8223,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -8168,6 +8291,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -8235,6 +8359,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -8302,6 +8427,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -8369,6 +8495,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -8436,6 +8563,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -8503,6 +8631,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -8570,6 +8699,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -8637,6 +8767,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -8704,6 +8835,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -8771,6 +8903,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -8838,6 +8971,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -8905,6 +9039,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -8972,6 +9107,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -9039,6 +9175,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -9106,6 +9243,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -9173,6 +9311,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -9240,6 +9379,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -9307,6 +9447,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -9374,6 +9515,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -9441,6 +9583,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -9508,6 +9651,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -9575,6 +9719,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -9642,6 +9787,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -9709,6 +9855,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -9776,6 +9923,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -9843,6 +9991,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -9910,6 +10059,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -9977,6 +10127,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -10044,6 +10195,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -10111,6 +10263,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -10178,6 +10331,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -10245,6 +10399,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -10312,6 +10467,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -10379,6 +10535,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -10446,6 +10603,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -10513,6 +10671,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -10580,6 +10739,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -10647,6 +10807,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -10714,6 +10875,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -10781,6 +10943,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -10848,6 +11011,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -10915,6 +11079,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -10982,6 +11147,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -11049,6 +11215,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -11116,6 +11283,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -11183,6 +11351,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -11250,6 +11419,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -11317,6 +11487,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -11384,6 +11555,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -11455,6 +11627,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -11522,6 +11695,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -11589,6 +11763,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -11656,6 +11831,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -11723,6 +11899,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -11790,6 +11967,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -11857,6 +12035,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -11924,6 +12103,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -11991,6 +12171,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -12058,6 +12239,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -12125,6 +12307,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -12192,6 +12375,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -12259,6 +12443,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -12326,6 +12511,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -12393,6 +12579,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -12460,6 +12647,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -12527,6 +12715,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -12594,6 +12783,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -12661,6 +12851,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -12728,6 +12919,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -12795,6 +12987,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -12862,6 +13055,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -12929,6 +13123,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -12996,6 +13191,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -13063,6 +13259,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -13130,6 +13327,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -13197,6 +13395,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -13264,6 +13463,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -13331,6 +13531,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -13402,6 +13603,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -13469,6 +13671,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -13536,6 +13739,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -13603,6 +13807,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -13670,6 +13875,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -13737,6 +13943,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -13804,6 +14011,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -13871,6 +14079,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -13938,6 +14147,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -14005,6 +14215,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -14072,6 +14283,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -14149,6 +14361,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -14226,6 +14439,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -14299,6 +14513,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -14376,6 +14591,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -14453,6 +14669,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -14526,6 +14743,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -14599,6 +14817,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -14670,6 +14889,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -14741,6 +14961,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -14808,6 +15029,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -14879,6 +15101,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -14950,6 +15173,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -15017,6 +15241,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -15088,6 +15313,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -15159,6 +15385,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -15226,6 +15453,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -15297,6 +15525,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -15364,6 +15593,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -15435,6 +15665,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -15502,6 +15733,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -15569,6 +15801,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -15636,6 +15869,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -15703,6 +15937,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -15770,6 +16005,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -15837,6 +16073,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -15904,6 +16141,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -15971,6 +16209,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -16038,6 +16277,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -16105,6 +16345,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -16176,6 +16417,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -16277,6 +16519,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -16378,6 +16621,7 @@
           <t>200804</t>
         </is>
       </c>
+      <c r="AB212" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
